--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Initial1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B09F0-9D88-4FBD-AB21-AA2A72B539E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53683858-59CE-4C58-8D87-38AA8AF5BEB0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -351,6 +351,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -496,7 +516,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -516,73 +536,79 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1074,7 +1100,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1090,105 +1116,105 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
-      <c r="H1" s="26"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="5"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="5"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="6"/>
       <c r="I8" s="12"/>
     </row>
